--- a/reconstruction-tools-assessment/supplementary material/S18_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S18_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B3EE9E-C8F6-4882-8759-A91ADF25295A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="4476" yWindow="1320" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S18 Table" sheetId="1" r:id="rId1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -509,7 +510,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -537,7 +538,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -593,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -607,7 +608,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -635,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -747,7 +748,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -803,7 +804,7 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -817,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="10">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -831,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="5"/>
     </row>
